--- a/Input_Data/MP_Trade_Input.xlsx
+++ b/Input_Data/MP_Trade_Input.xlsx
@@ -4,12 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12210"/>
+    <workbookView windowWidth="28800" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -22,7 +35,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
@@ -1202,12 +1215,12 @@
   <dimension ref="A1:A1048575"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="21.7142857142857" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1222,7 +1235,7 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1">
-        <v>8000535012</v>
+        <v>8000534976</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -16348,6 +16361,11 @@
     <row r="3028" spans="1:1">
       <c r="A3028" s="1">
         <v>8000760599</v>
+      </c>
+    </row>
+    <row r="3029" spans="1:1">
+      <c r="A3029" s="1">
+        <v>8000535012</v>
       </c>
     </row>
     <row r="1040955" spans="1:1">
